--- a/InputFiles/C3DC/TC13_C3DC_phs002790_RespSystm-NotReported.xlsx
+++ b/InputFiles/C3DC/TC13_C3DC_phs002790_RespSystm-NotReported.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sohilz2/Automation/poc-11-27-2024/Commons_Automation/InputFiles/C3DC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B520998-2EE9-764B-9AAA-09306CB035F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896A9522-6197-5F43-AE93-67CB498DA585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-42260" yWindow="-1680" windowWidth="30860" windowHeight="25620" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -146,42 +146,6 @@
 LIMIT 100;</t>
   </si>
   <si>
-    <t>SELECT DISTINCT
-    prt.participant_id AS "Participant Id",
-    dgn.diagnosis_id AS "Diagnosis Id",
-    dgn.diagnosis AS "Diagnosis",
-    dgn.diagnosis_classification_system AS "Diagnosis Classification System",
-    dgn.diagnosis_basis AS "Diagnosis Basis",
-    dgn.tumor_classification AS "Tumor Classification",
-    dgn.anatomic_site AS "Anatomic Site",
-    CASE 
-    WHEN dgn.age_at_diagnosis = -999 THEN 'Not Reported'
-    WHEN dgn.age_at_diagnosis &gt;= 1000 THEN 
-        substr(dgn.age_at_diagnosis, 1, length(dgn.age_at_diagnosis) - 3) || ',' || substr(dgn.age_at_diagnosis, -3)
-    ELSE 
-        dgn.age_at_diagnosis 
-END AS "Age at Diagnosis (days)",
-    std.dbgap_accession AS "dbGaP Accession"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
-WHERE 
-    std.dbgap_accession = 'phs002790' AND trr.response_system IN ('Not Reported')
-    prt.participant_id ASC
-LIMIT 100;</t>
-  </si>
-  <si>
     <t>SELECT
     DISTINCT prt.participant_id AS "Participant Id",
     trt.treatment_id AS "Treatment Id",
@@ -292,14 +256,58 @@
     prt.participant_id ASC
 LIMIT 100;</t>
   </si>
+  <si>
+    <t>SELECT DISTINCT
+    prt.participant_id AS "Participant Id",
+    dgn.diagnosis_id AS "Diagnosis Id",
+    dgn.diagnosis AS "Diagnosis",
+    dgn.diagnosis_classification_system AS "Diagnosis Classification System",
+    dgn.diagnosis_basis AS "Diagnosis Basis",
+    dgn.tumor_classification AS "Tumor Classification",
+    dgn.anatomic_site AS "Anatomic Site",
+    CASE 
+    WHEN dgn.age_at_diagnosis = -999 THEN 'Not Reported'
+    WHEN dgn.age_at_diagnosis &gt;= 1000 THEN 
+        substr(dgn.age_at_diagnosis, 1, length(dgn.age_at_diagnosis) - 3) || ',' || substr(dgn.age_at_diagnosis, -3)
+    ELSE 
+        dgn.age_at_diagnosis 
+END AS "Age at Diagnosis (days)",
+    std.dbgap_accession AS "dbGaP Accession"
+FROM 
+    df_study std
+LEFT JOIN 
+    df_participant prt ON std.id = prt."study.id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.id = dgn."participant.id"
+LEFT JOIN 
+    df_treatments trt ON prt.id = trt."participant.id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.id = trr."participant.id"
+LEFT JOIN 
+    df_survival srv ON prt.id = srv."participant.id"
+LEFT JOIN 
+    df_reference_files rfs ON std.id = rfs."study.id"
+WHERE 
+    std.dbgap_accession = 'phs002790' AND trr.response_system IN ('Not Reported')
+ORDER BY 
+    prt.participant_id ASC
+LIMIT 100;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -352,11 +360,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -682,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -741,8 +752,8 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -751,7 +762,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -760,7 +771,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -769,7 +780,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -781,7 +792,7 @@
       <c r="C9" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/InputFiles/C3DC/TC13_C3DC_phs002790_RespSystm-NotReported.xlsx
+++ b/InputFiles/C3DC/TC13_C3DC_phs002790_RespSystm-NotReported.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sohilz2/Automation/poc-11-27-2024/Commons_Automation/InputFiles/C3DC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sohilz2/Automation/07-15-2025/Commons_Automation/InputFiles/C3DC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896A9522-6197-5F43-AE93-67CB498DA585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCB5655-3978-274B-B2F9-66F8F9B68095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-42260" yWindow="-1680" windowWidth="30860" windowHeight="25620" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="37100" yWindow="-1460" windowWidth="30860" windowHeight="25620" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,17 +84,17 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
+    df_participant prt ON std.study_id = prt."study.study_id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
+LEFT JOIN 
+    df_survival srv ON prt.participant_id = srv."participant.participant_id"
+LEFT JOIN 
+    df_reference_files rfs ON std.study_id = rfs."study.study_id"
 WHERE 
     std.dbgap_accession = 'phs002790' AND trr.response_system IN ('Not Reported');</t>
   </si>
@@ -105,17 +105,17 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
+    df_participant prt ON std.study_id = prt."study.study_id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
+LEFT JOIN 
+    df_survival srv ON prt.participant_id = srv."participant.participant_id"
+LEFT JOIN 
+    df_reference_files rfs ON std.study_id = rfs."study.study_id"
 WHERE 
     std.dbgap_accession = 'phs002790' AND trr.response_system IN ('Not Reported')</t>
   </si>
@@ -128,17 +128,54 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
+    df_participant prt ON std.study_id = prt."study.study_id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
+LEFT JOIN 
+    df_survival srv ON prt.participant_id = srv."participant.participant_id"
+LEFT JOIN 
+    df_reference_files rfs ON std.study_id = rfs."study.study_id"
+WHERE 
+    std.dbgap_accession = 'phs002790' AND trr.response_system IN ('Not Reported')
+ORDER BY 
+    prt.participant_id ASC
+LIMIT 100;</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT
+    prt.participant_id AS "Participant Id",
+    dgn.diagnosis_id AS "Diagnosis Id",
+    dgn.diagnosis AS "Diagnosis",
+    dgn.diagnosis_classification_system AS "Diagnosis Classification System",
+    dgn.diagnosis_basis AS "Diagnosis Basis",
+    dgn.tumor_classification AS "Tumor Classification",
+    dgn.anatomic_site AS "Anatomic Site",
+    CASE 
+    WHEN dgn.age_at_diagnosis = -999 THEN 'Not Reported'
+    WHEN dgn.age_at_diagnosis &gt;= 1000 THEN 
+        substr(dgn.age_at_diagnosis, 1, length(dgn.age_at_diagnosis) - 3) || ',' || substr(dgn.age_at_diagnosis, -3)
+    ELSE 
+        dgn.age_at_diagnosis 
+END AS "Age at Diagnosis (days)",
+    std.dbgap_accession AS "dbGaP Accession"
+FROM 
+    df_study std
+LEFT JOIN 
+    df_participant prt ON std.study_id = prt."study.study_id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
+LEFT JOIN 
+    df_survival srv ON prt.participant_id = srv."participant.participant_id"
+LEFT JOIN 
+    df_reference_files rfs ON std.study_id = rfs."study.study_id"
 WHERE 
     std.dbgap_accession = 'phs002790' AND trr.response_system IN ('Not Reported')
 ORDER BY 
@@ -169,17 +206,17 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
+    df_participant prt ON std.study_id = prt."study.study_id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
+LEFT JOIN 
+    df_survival srv ON prt.participant_id = srv."participant.participant_id"
+LEFT JOIN 
+    df_reference_files rfs ON std.study_id = rfs."study.study_id"
 WHERE 
     std.dbgap_accession = 'phs002790' AND trr.response_system IN ('Not Reported') AND trt.treatment_id IS NOT NULL
 ORDER BY 
@@ -204,17 +241,17 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
+    df_participant prt ON std.study_id = prt."study.study_id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
+LEFT JOIN 
+    df_survival srv ON prt.participant_id = srv."participant.participant_id"
+LEFT JOIN 
+    df_reference_files rfs ON std.study_id = rfs."study.study_id"
 WHERE 
     std.dbgap_accession = 'phs002790' AND trr.response_system IN ('Not Reported')
 ORDER BY 
@@ -239,75 +276,31 @@
 FROM 
     df_study std
 LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
+    df_participant prt ON std.study_id = prt."study.study_id"
+LEFT JOIN 
+    df_diagnoses dgn ON prt.participant_id = dgn."participant.participant_id"
+LEFT JOIN 
+    df_treatments trt ON prt.participant_id = trt."participant.participant_id"
+LEFT JOIN 
+    df_treatment_resp trr ON prt.participant_id = trr."participant.participant_id"
+LEFT JOIN 
+    df_survival srv ON prt.participant_id = srv."participant.participant_id"
+LEFT JOIN 
+    df_reference_files rfs ON std.study_id = rfs."study.study_id"
 WHERE 
     std.dbgap_accession = 'phs002790' AND trr.response_system IN ('Not Reported') AND srv.survival_id IS NOT NULL
 ORDER BY 
     prt.participant_id ASC
 LIMIT 100;</t>
   </si>
-  <si>
-    <t>SELECT DISTINCT
-    prt.participant_id AS "Participant Id",
-    dgn.diagnosis_id AS "Diagnosis Id",
-    dgn.diagnosis AS "Diagnosis",
-    dgn.diagnosis_classification_system AS "Diagnosis Classification System",
-    dgn.diagnosis_basis AS "Diagnosis Basis",
-    dgn.tumor_classification AS "Tumor Classification",
-    dgn.anatomic_site AS "Anatomic Site",
-    CASE 
-    WHEN dgn.age_at_diagnosis = -999 THEN 'Not Reported'
-    WHEN dgn.age_at_diagnosis &gt;= 1000 THEN 
-        substr(dgn.age_at_diagnosis, 1, length(dgn.age_at_diagnosis) - 3) || ',' || substr(dgn.age_at_diagnosis, -3)
-    ELSE 
-        dgn.age_at_diagnosis 
-END AS "Age at Diagnosis (days)",
-    std.dbgap_accession AS "dbGaP Accession"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_diagnoses dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_treatments trt ON prt.id = trt."participant.id"
-LEFT JOIN 
-    df_treatment_resp trr ON prt.id = trr."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-LEFT JOIN 
-    df_reference_files rfs ON std.id = rfs."study.id"
-WHERE 
-    std.dbgap_accession = 'phs002790' AND trr.response_system IN ('Not Reported')
-ORDER BY 
-    prt.participant_id ASC
-LIMIT 100;</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -360,14 +353,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -693,15 +683,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="75.83203125" customWidth="1"/>
-    <col min="3" max="3" width="60.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.83203125" customWidth="1"/>
     <col min="4" max="4" width="50.83203125" customWidth="1"/>
     <col min="5" max="5" width="46.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -752,8 +742,8 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>19</v>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -762,7 +752,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -771,7 +761,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -780,7 +770,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -792,7 +782,7 @@
       <c r="C9" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
